--- a/doc/fixes/Правки 10_02_2025.xlsx
+++ b/doc/fixes/Правки 10_02_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\fixes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30C01F4-AB4B-4260-BA42-1C195E0D2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{83DB84BD-4F07-4569-8243-F73E77EAF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="24" r:id="rId1"/>
@@ -3571,7 +3571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4025,6 +4025,7 @@
     <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="53" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10307,8 +10308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143:I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10579,10 +10580,10 @@
       <c r="C35" s="65"/>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="15.75">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="218" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="219" t="s">
         <v>402</v>
       </c>
       <c r="C36" s="154"/>
@@ -11765,8 +11766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO43"/>
   <sheetViews>
-    <sheetView topLeftCell="AC18" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+    <sheetView tabSelected="1" topLeftCell="AC15" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
